--- a/study summary.xlsx
+++ b/study summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="6040" windowWidth="25280" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="6320" windowWidth="25280" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>define match</t>
   </si>
@@ -187,21 +187,18 @@
     <t>population and mean annual egg production rate</t>
   </si>
   <si>
-    <t>multipl</t>
-  </si>
-  <si>
     <t>multiple</t>
   </si>
   <si>
     <t>climate change</t>
   </si>
   <si>
+    <t>population dynamics</t>
+  </si>
+  <si>
     <t>population structure</t>
   </si>
   <si>
-    <t>phenology</t>
-  </si>
-  <si>
     <t>individual (growth using length)</t>
   </si>
   <si>
@@ -218,6 +215,36 @@
   </si>
   <si>
     <t>1? (annual recruitment)</t>
+  </si>
+  <si>
+    <t>terrestrial</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>individual (mean nestling rate) and population (survival rate)</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>individual (occurrence)</t>
+  </si>
+  <si>
+    <t>individual (hatch date)</t>
+  </si>
+  <si>
+    <t>popuation? (abundance and catch per unit effort at different ages)</t>
+  </si>
+  <si>
+    <t>multiple (based on Fig 6)</t>
+  </si>
+  <si>
+    <t>zooplankton</t>
   </si>
 </sst>
 </file>
@@ -279,8 +306,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -324,7 +355,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -337,6 +368,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +382,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,7 +719,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -811,10 +846,10 @@
         <v>54</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -834,16 +869,16 @@
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
@@ -866,36 +901,108 @@
         <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
@@ -910,6 +1017,12 @@
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12">
